--- a/obiwanpozharski/resources/canon.xlsx
+++ b/obiwanpozharski/resources/canon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronbernhardt/Desktop/umdbrownies.github.io/obiwanpozharski/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronbernhardt/Desktop/umdbrownies.github.io/obiwanpozharski/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Obi-Wan Kenobi</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Sith</t>
   </si>
   <si>
-    <t>Pizza</t>
-  </si>
-  <si>
     <t>Ezra Bridger</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Leia Organa</t>
   </si>
   <si>
-    <t>AØBøt</t>
-  </si>
-  <si>
     <t>Endor</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>General Grievous</t>
   </si>
   <si>
-    <t>General (Physics) Ghoul</t>
-  </si>
-  <si>
     <t>Darth Justin</t>
   </si>
   <si>
@@ -225,6 +216,21 @@
   </si>
   <si>
     <t>Cookie</t>
+  </si>
+  <si>
+    <t>General AØBøt</t>
+  </si>
+  <si>
+    <t>Physics Ghoul</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Zam Wesell</t>
+  </si>
+  <si>
+    <t>Vincent Song</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -636,7 +642,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -708,20 +714,20 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -729,90 +735,98 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/obiwanpozharski/resources/canon.xlsx
+++ b/obiwanpozharski/resources/canon.xlsx
@@ -47,9 +47,6 @@
     <t>Yiyi Kuang</t>
   </si>
   <si>
-    <t>Jiayang Shi</t>
-  </si>
-  <si>
     <t>Count Dooku</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Vincent Song</t>
+  </si>
+  <si>
+    <t>Jí Shi</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -586,247 +586,247 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
         <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
